--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajaVani\Desktop\easyPyGui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE14507-CC7F-4473-92E7-B0C4F0B54EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EE9295-B0F7-4DB6-823E-007EC1B799C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{86868B3B-FD78-4B5B-BAA6-F9CEE1DDD704}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="67">
   <si>
     <t>key</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>[4,5,6,7]</t>
+  </si>
+  <si>
+    <t>window_self</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A12" sqref="A12:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,6 +815,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
@@ -841,8 +845,8 @@
       <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>45</v>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>54</v>
@@ -897,6 +901,7 @@
       <c r="D14" s="12" t="s">
         <v>65</v>
       </c>
+      <c r="E14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
@@ -942,6 +947,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
@@ -987,6 +993,7 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1006,6 +1013,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1025,6 +1033,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1044,6 +1053,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1063,6 +1073,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
